--- a/feature/fix-TRER66/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/fix-TRER66/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:11:11+00:00</t>
+    <t>2024-11-08T16:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/fix-TRER66/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/fix-TRER66/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:33:42+00:00</t>
+    <t>2024-11-08T16:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
